--- a/NewMounterAccount/wwwroot/Files/Templates/USPDTemplate.xlsx
+++ b/NewMounterAccount/wwwroot/Files/Templates/USPDTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timur\source\Git\LK\NewMounterAccount\wwwroot\Files\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\LK-master\NewMounterAccount\wwwroot\Files\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99DF46A-11AB-431B-BA94-C1ECE91C6979}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C646B423-D074-4277-B0A0-99840BBCA3EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{D6324CA2-3DBE-4B62-9916-20E3C9EAF6BA}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{D6324CA2-3DBE-4B62-9916-20E3C9EAF6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>ПО УГЭС ЗРЭС</t>
   </si>
   <si>
-    <t>ТАБЕЛЬ КОММАНИКАЦИОННОГО ОБОРУДОВАНИЯ</t>
-  </si>
-  <si>
     <t>Дата</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>4. КВВГ 10x2.5</t>
+  </si>
+  <si>
+    <t>ТАБЕЛЬ КОММУНИКАЦИОННОГО ОБОРУДОВАНИЯ</t>
   </si>
 </sst>
 </file>
@@ -299,57 +299,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -365,9 +365,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -405,7 +405,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -511,7 +511,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -664,7 +664,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,27 +678,27 @@
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="G1" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="22"/>
-      <c r="M1" s="13" t="s">
+      <c r="G1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="M1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="14"/>
+      <c r="N1" s="19"/>
       <c r="O1" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="D3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D4" s="3"/>
@@ -711,334 +711,351 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="18" t="s">
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="B13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="12" t="s">
+      <c r="C14" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="20" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
     <row r="34" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G35" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G35" s="8" t="s">
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
       <c r="M35" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="N15:N20"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="C15:D17"/>
+    <mergeCell ref="C18:D20"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A8:B11"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I15:I20"/>
@@ -1055,31 +1072,14 @@
     <mergeCell ref="H15:H17"/>
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="N15:N20"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="C15:D17"/>
-    <mergeCell ref="C18:D20"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A8:B11"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.34375" right="0.13541666666666666" top="0.13541666666666666" bottom="0.26041666666666669" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
